--- a/biology/Médecine/Inhibiteur_du_facteur_de_croissance_de_l'endothélium_vasculaire/Inhibiteur_du_facteur_de_croissance_de_l'endothélium_vasculaire.xlsx
+++ b/biology/Médecine/Inhibiteur_du_facteur_de_croissance_de_l'endothélium_vasculaire/Inhibiteur_du_facteur_de_croissance_de_l'endothélium_vasculaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Inhibiteur_du_facteur_de_croissance_de_l%27endoth%C3%A9lium_vasculaire</t>
+          <t>Inhibiteur_du_facteur_de_croissance_de_l'endothélium_vasculaire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un Inhibiteur du facteur de croissance de l’endothélium vasculaire ou anti-VGEF est  un médicament s'opposant à la formation de nouveaux vaisseaux par l'organisme ou angiogenèse.
-La création de vaisseaux a pour but d’apporter aux tissus et aux cellules l’oxygène et les nutriments nécessaires à leur fonctionnement. L’hypoxie est le facteur déterminant de l’angiogenèse. Au cours de la vie adulte, le réseau vasculaire est stable et les processus d’angiogenèse sont généralement éteints. L’endothélium qui borde la lumière des vaisseaux sanguins est quiescent. Lors de certaines circonstances pathologiques, une angiogenèse active se met en jeu. Cette néoangiogenèse fait intervenir les mêmes mécanismes moléculaires que ceux mis en jeu lors de l’angiogenèse embryonnaire. Le Vascular Endothelial Growth Factor (VEGF) joue un rôle essentiel lors de la vasculogenèse — la toute première étape de la formation des vaisseaux — et de l’angiogenèse normale et pathologique[1].
+La création de vaisseaux a pour but d’apporter aux tissus et aux cellules l’oxygène et les nutriments nécessaires à leur fonctionnement. L’hypoxie est le facteur déterminant de l’angiogenèse. Au cours de la vie adulte, le réseau vasculaire est stable et les processus d’angiogenèse sont généralement éteints. L’endothélium qui borde la lumière des vaisseaux sanguins est quiescent. Lors de certaines circonstances pathologiques, une angiogenèse active se met en jeu. Cette néoangiogenèse fait intervenir les mêmes mécanismes moléculaires que ceux mis en jeu lors de l’angiogenèse embryonnaire. Le Vascular Endothelial Growth Factor (VEGF) joue un rôle essentiel lors de la vasculogenèse — la toute première étape de la formation des vaisseaux — et de l’angiogenèse normale et pathologique.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Inhibiteur_du_facteur_de_croissance_de_l%27endoth%C3%A9lium_vasculaire</t>
+          <t>Inhibiteur_du_facteur_de_croissance_de_l'endothélium_vasculaire</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Médicaments</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Bévacizumab
 Sunitinib
